--- a/data/sentinel_token.xlsx
+++ b/data/sentinel_token.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Mresult\Phenomix\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PrinciaFernandes\Mresult\Phenomix\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E042AC-B170-4327-A1FC-5300CF8611F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84F559A-B9AB-4462-9929-6A7BE995E12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Pdf_num</t>
   </si>
@@ -45,10 +47,13 @@
     <t>total_tokens</t>
   </si>
   <si>
-    <t>Input_Price</t>
+    <t>Input Price</t>
   </si>
   <si>
-    <t>Output_tokens</t>
+    <t>Output_price</t>
+  </si>
+  <si>
+    <t>Total token price</t>
   </si>
 </sst>
 </file>
@@ -112,12 +117,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,6 +438,8 @@
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -447,10 +455,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -468,12 +476,12 @@
         <v>1041</v>
       </c>
       <c r="E2">
-        <f>0.0001*C2</f>
-        <v>7.1300000000000002E-2</v>
+        <f>0.0000001*C2</f>
+        <v>7.1299999999999998E-5</v>
       </c>
       <c r="F2">
-        <f>0.0004*B2</f>
-        <v>0.13120000000000001</v>
+        <f>0.0000004*B2</f>
+        <v>1.3119999999999999E-4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -490,12 +498,12 @@
         <v>6814</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E45" si="0">0.0001*C3</f>
-        <v>0.35960000000000003</v>
+        <f t="shared" ref="E3:E54" si="0">0.0000001*C3</f>
+        <v>3.5959999999999996E-4</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F45" si="1">0.0004*B3</f>
-        <v>1.2872000000000001</v>
+        <f t="shared" ref="F3:F54" si="1">0.0000004*B3</f>
+        <v>1.2871999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -513,11 +521,11 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>8.320000000000001E-2</v>
+        <v>8.3199999999999989E-5</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>0.17200000000000001</v>
+        <v>1.7199999999999998E-4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -535,11 +543,11 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.52280000000000004</v>
+        <v>5.2280000000000002E-4</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>2.0407999999999999</v>
+        <v>2.0407999999999997E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -557,11 +565,11 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.44620000000000004</v>
+        <v>4.462E-4</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>1.5372000000000001</v>
+        <v>1.5371999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -579,11 +587,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.4879</v>
+        <v>4.8789999999999999E-4</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1.6160000000000001</v>
+        <v>1.616E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -601,11 +609,11 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.48820000000000002</v>
+        <v>4.8819999999999999E-4</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1.6732</v>
+        <v>1.6731999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -623,11 +631,11 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.47860000000000003</v>
+        <v>4.7859999999999998E-4</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1.5768</v>
+        <v>1.5767999999999999E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -645,11 +653,11 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.53360000000000007</v>
+        <v>5.3359999999999996E-4</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1.8816000000000002</v>
+        <v>1.8816E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -667,11 +675,11 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.57620000000000005</v>
+        <v>5.7620000000000002E-4</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>2.2824</v>
+        <v>2.2824E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -689,11 +697,11 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.54420000000000002</v>
+        <v>5.442E-4</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>2.1264000000000003</v>
+        <v>2.1264000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -711,11 +719,11 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.50890000000000002</v>
+        <v>5.0889999999999996E-4</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1.9064000000000001</v>
+        <v>1.9063999999999999E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -733,11 +741,11 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.51729999999999998</v>
+        <v>5.1729999999999994E-4</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>1.8344</v>
+        <v>1.8343999999999999E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -755,11 +763,11 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.55090000000000006</v>
+        <v>5.509E-4</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>2.0116000000000001</v>
+        <v>2.0116000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -777,11 +785,11 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.49740000000000001</v>
+        <v>4.9739999999999995E-4</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>1.6908000000000001</v>
+        <v>1.6907999999999999E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -799,11 +807,11 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.54080000000000006</v>
+        <v>5.4080000000000003E-4</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>1.8976000000000002</v>
+        <v>1.8975999999999999E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -821,11 +829,11 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.52550000000000008</v>
+        <v>5.2549999999999993E-4</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>1.8524</v>
+        <v>1.8523999999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,11 +851,11 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.57130000000000003</v>
+        <v>5.7129999999999995E-4</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>2.1272000000000002</v>
+        <v>2.1272000000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -865,11 +873,11 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.54459999999999997</v>
+        <v>5.4460000000000001E-4</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>1.9264000000000001</v>
+        <v>1.9264E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -887,11 +895,11 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.61070000000000002</v>
+        <v>6.1069999999999994E-4</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>2.3144</v>
+        <v>2.3143999999999999E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -909,11 +917,11 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.61899999999999999</v>
+        <v>6.1899999999999998E-4</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>2.3792</v>
+        <v>2.3791999999999997E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -931,11 +939,11 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0.49320000000000003</v>
+        <v>4.9319999999999995E-4</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>1.6624000000000001</v>
+        <v>1.6623999999999999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -953,11 +961,11 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0.50309999999999999</v>
+        <v>5.0309999999999992E-4</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>1.6876</v>
+        <v>1.6875999999999998E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -975,11 +983,11 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0.53810000000000002</v>
+        <v>5.3810000000000001E-4</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1.8448</v>
+        <v>1.8448E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -997,11 +1005,11 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0.53320000000000001</v>
+        <v>5.3319999999999995E-4</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>1.8388</v>
+        <v>1.8387999999999998E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1019,11 +1027,11 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>0.5575</v>
+        <v>5.5749999999999994E-4</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1.9496</v>
+        <v>1.9495999999999999E-3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1041,11 +1049,11 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>0.56850000000000001</v>
+        <v>5.6849999999999999E-4</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>1.9788000000000001</v>
+        <v>1.9787999999999997E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1063,11 +1071,11 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>0.54149999999999998</v>
+        <v>5.4149999999999999E-4</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>1.8556000000000001</v>
+        <v>1.8556E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1085,11 +1093,11 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>0.56510000000000005</v>
+        <v>5.6510000000000002E-4</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>2.0004</v>
+        <v>2.0003999999999998E-3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1107,11 +1115,11 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>0.54659999999999997</v>
+        <v>5.4659999999999995E-4</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>1.9364000000000001</v>
+        <v>1.9364E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1129,11 +1137,11 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>0.53800000000000003</v>
+        <v>5.3799999999999996E-4</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>1.8532000000000002</v>
+        <v>1.8531999999999999E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1151,11 +1159,11 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>0.5454</v>
+        <v>5.4539999999999992E-4</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>1.8736000000000002</v>
+        <v>1.8736E-3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1173,11 +1181,11 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>0.54259999999999997</v>
+        <v>5.4259999999999996E-4</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>1.8652000000000002</v>
+        <v>1.8652E-3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1195,11 +1203,11 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>0.56269999999999998</v>
+        <v>5.6269999999999996E-4</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>1.9296</v>
+        <v>1.9295999999999998E-3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1217,11 +1225,11 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>0.57150000000000001</v>
+        <v>5.7149999999999996E-4</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>2.0336000000000003</v>
+        <v>2.0336E-3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1239,11 +1247,11 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>0.57800000000000007</v>
+        <v>5.7799999999999995E-4</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>2.048</v>
+        <v>2.0479999999999999E-3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1261,11 +1269,11 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>0.56840000000000002</v>
+        <v>5.6839999999999994E-4</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>1.9956</v>
+        <v>1.9955999999999997E-3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1283,11 +1291,11 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>0.56559999999999999</v>
+        <v>5.6559999999999998E-4</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>1.9936</v>
+        <v>1.9935999999999999E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1295,21 +1303,21 @@
         <v>2</v>
       </c>
       <c r="B40">
-        <v>4916</v>
+        <v>4965</v>
       </c>
       <c r="C40">
         <v>5639</v>
       </c>
       <c r="D40">
-        <v>10555</v>
+        <v>10604</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>0.56390000000000007</v>
+        <v>5.6389999999999999E-4</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>1.9664000000000001</v>
+        <v>1.9859999999999999E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1327,11 +1335,11 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>0.56380000000000008</v>
+        <v>5.6379999999999993E-4</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>2.004</v>
+        <v>2.0039999999999997E-3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1349,11 +1357,11 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>0.5675</v>
+        <v>5.6749999999999997E-4</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>2.0931999999999999</v>
+        <v>2.0931999999999999E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1371,11 +1379,11 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>0.57290000000000008</v>
+        <v>5.7289999999999999E-4</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>2.1752000000000002</v>
+        <v>2.1752E-3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1383,21 +1391,21 @@
         <v>2</v>
       </c>
       <c r="B44">
-        <v>5600</v>
+        <v>5692</v>
       </c>
       <c r="C44">
         <v>5892</v>
       </c>
       <c r="D44">
-        <v>11492</v>
+        <v>11584</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>0.58920000000000006</v>
+        <v>5.8920000000000001E-4</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>2.2400000000000002</v>
+        <v>2.2767999999999998E-3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1415,25 +1423,225 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>0.26900000000000002</v>
+        <v>2.6899999999999998E-4</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>0.78239999999999998</v>
+        <v>7.8239999999999994E-4</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>316</v>
+      </c>
+      <c r="C46">
+        <v>713</v>
+      </c>
+      <c r="D46">
+        <v>1029</v>
+      </c>
       <c r="E46">
-        <f>SUM(E2:E45)</f>
-        <v>22.523499999999999</v>
+        <f t="shared" si="0"/>
+        <v>7.1299999999999998E-5</v>
       </c>
       <c r="F46">
-        <f>SUM(F2:F45)</f>
-        <v>79.873199999999983</v>
+        <f t="shared" si="1"/>
+        <v>1.2639999999999998E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>4634</v>
+      </c>
+      <c r="C47">
+        <v>5145</v>
+      </c>
+      <c r="D47">
+        <v>9779</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>5.1449999999999998E-4</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>1.8536E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>737</v>
+      </c>
+      <c r="C48">
+        <v>1591</v>
+      </c>
+      <c r="D48">
+        <v>2328</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>1.5909999999999999E-4</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>2.9480000000000001E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>380</v>
+      </c>
+      <c r="C49">
+        <v>776</v>
+      </c>
+      <c r="D49">
+        <v>1156</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>7.7600000000000002E-5</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>1.5199999999999998E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>4321</v>
+      </c>
+      <c r="C50">
+        <v>4640</v>
+      </c>
+      <c r="D50">
+        <v>8961</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>4.64E-4</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>1.7283999999999999E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>851</v>
+      </c>
+      <c r="C51">
+        <v>1645</v>
+      </c>
+      <c r="D51">
+        <v>2496</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>1.6449999999999999E-4</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>3.4039999999999998E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>482</v>
+      </c>
+      <c r="C52">
+        <v>881</v>
+      </c>
+      <c r="D52">
+        <v>1363</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>8.81E-5</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>1.928E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>4203</v>
+      </c>
+      <c r="C53">
+        <v>5560</v>
+      </c>
+      <c r="D53">
+        <v>9763</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>5.5599999999999996E-4</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>1.6811999999999999E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>2291</v>
+      </c>
+      <c r="C54">
+        <v>3466</v>
+      </c>
+      <c r="D54">
+        <v>5757</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>3.4659999999999997E-4</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>9.1639999999999994E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2">
+        <f>SUM(E2:E54)</f>
+        <v>2.4965199999999996E-2</v>
+      </c>
+      <c r="F55" s="2">
+        <f>SUM(F2:F54)</f>
+        <v>8.7215600000000004E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>